--- a/notes/calving_event_list.xlsx
+++ b/notes/calving_event_list.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8EFCF-8F51-9947-A455-4F5DDD73AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32F1CA-B4B5-174F-8F8B-A87F46AA6B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="21400" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
+    <workbookView xWindow="20" yWindow="2080" windowWidth="33600" windowHeight="19640" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
     <author>Chad Greene</author>
   </authors>
   <commentList>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{0083B1FD-468D-6548-90AB-41404B254EC9}">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{0083B1FD-468D-6548-90AB-41404B254EC9}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{6E9F93F7-3F45-1542-8404-9F392288F2C3}">
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{6E9F93F7-3F45-1542-8404-9F392288F2C3}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -320,9 +320,6 @@
     <t>https://agupubs.onlinelibrary.wiley.com/action/downloadSupplement?doi=10.1029%2F2004JC002843&amp;file=jgrc9941-sup-0002-ts01.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">This is list of known Antarctic calving events, compiled by Chad A. Greene. </t>
-  </si>
-  <si>
     <t>C18</t>
   </si>
   <si>
@@ -375,6 +372,24 @@
   </si>
   <si>
     <t>2002-03 to 2003-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a (very incomplete) list of known Antarctic calving events, compiled by Chad A. Greene. </t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>West Ice Shelf</t>
+  </si>
+  <si>
+    <t>https://ui.adsabs.harvard.edu/abs/2019AGUFM.C13A..06W/abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediately reattached and stayed there until 2015. </t>
   </si>
 </sst>
 </file>
@@ -760,16 +775,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54D919-FE8E-844E-9F61-E7E81936B39C}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -780,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -902,147 +915,144 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9">
+      <c r="E10">
         <v>2320</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
         <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11">
-        <v>1193</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E12">
-        <v>7636</v>
+        <v>1193</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>442</v>
+        <v>7636</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>10915</v>
+        <v>442</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>480</v>
+        <v>10915</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
       </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>1602</v>
+        <v>480</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -1059,10 +1069,10 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>138</v>
+        <v>1602</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1073,16 +1083,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E18">
-        <v>9252</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -1099,10 +1109,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>2232</v>
+        <v>9252</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -1113,67 +1123,70 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>2232</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21">
-        <v>722</v>
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22">
-        <v>2479</v>
+        <v>722</v>
       </c>
       <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
         <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>2479</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1184,131 +1197,148 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24">
-        <v>6368</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>796</v>
+        <v>6368</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>796</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D27" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
         <v>2010</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>8</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28">
-        <v>5800</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E29">
-        <v>1636</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>1270</v>
-      </c>
-      <c r="H30" t="s">
-        <v>63</v>
+        <v>1636</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>1270</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>55</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>4320</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1316,7 +1346,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B7" numberStoredAsText="1"/>
+    <ignoredError sqref="B7 B9" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/notes/calving_event_list.xlsx
+++ b/notes/calving_event_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32F1CA-B4B5-174F-8F8B-A87F46AA6B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C41E6-0C20-5E49-9525-064353CC9AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="2080" windowWidth="33600" windowHeight="19640" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -390,6 +390,21 @@
   </si>
   <si>
     <t xml:space="preserve">Immediately reattached and stayed there until 2015. </t>
+  </si>
+  <si>
+    <t>Braakmann2021tracking</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/tc-15-3861-2021</t>
+  </si>
+  <si>
+    <t>Thwaites</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>2012-05-24</t>
   </si>
 </sst>
 </file>
@@ -777,7 +792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54D919-FE8E-844E-9F61-E7E81936B39C}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -948,9 +965,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E11">
+        <v>1193</v>
+      </c>
       <c r="G11" t="s">
         <v>80</v>
       </c>
@@ -960,99 +983,102 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1193</v>
+        <v>7636</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>7636</v>
+        <v>442</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>442</v>
+        <v>10915</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>10915</v>
+        <v>480</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>480</v>
+        <v>1602</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -1069,10 +1095,10 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17">
-        <v>1602</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -1083,16 +1109,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>138</v>
+        <v>9252</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -1109,10 +1135,10 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>9252</v>
+        <v>2232</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -1123,47 +1149,44 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20">
-        <v>2232</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>722</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E22">
-        <v>722</v>
+        <v>2479</v>
       </c>
       <c r="G22" t="s">
         <v>80</v>
@@ -1174,19 +1197,19 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23">
-        <v>2479</v>
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1197,84 +1220,87 @@
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>6368</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E25">
-        <v>6368</v>
+        <v>796</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26">
-        <v>796</v>
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>77</v>
+      <c r="B27" s="2">
+        <v>2010</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
-        <v>2010</v>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>97</v>
+      </c>
+      <c r="E28">
+        <v>1500</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" t="s">
-        <v>9</v>
+        <v>94</v>
+      </c>
+      <c r="H28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">

--- a/notes/calving_event_list.xlsx
+++ b/notes/calving_event_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C41E6-0C20-5E49-9525-064353CC9AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31348B2-02BC-F241-A969-F142576DB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
+    <workbookView xWindow="1880" yWindow="520" windowWidth="32180" windowHeight="19440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +446,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -464,10 +472,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -476,8 +485,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -793,7 +804,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,10 +1239,10 @@
       <c r="G24" t="s">
         <v>73</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1370,10 +1381,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H24" r:id="rId1" xr:uid="{B5D26621-FC48-F843-80C9-547BC8967086}"/>
+    <hyperlink ref="I24" r:id="rId2" xr:uid="{159766E6-DEB7-3944-B0FF-D5BF20D43709}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B7 B9" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/notes/calving_event_list.xlsx
+++ b/notes/calving_event_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31348B2-02BC-F241-A969-F142576DB109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA634843-7413-EF4C-AF45-AB50260DFE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="520" windowWidth="32180" windowHeight="19440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
+    <workbookView xWindow="9780" yWindow="2580" windowWidth="32180" windowHeight="19440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>2012-05-24</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1002/2015GL064355</t>
+  </si>
+  <si>
+    <t>rack2004pattern,derydt2015</t>
   </si>
 </sst>
 </file>
@@ -803,9 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54D919-FE8E-844E-9F61-E7E81936B39C}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -969,10 +973,13 @@
         <v>2320</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -986,10 +993,13 @@
         <v>1193</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1183,10 +1193,13 @@
         <v>722</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
         <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -1200,10 +1213,13 @@
         <v>2479</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
